--- a/project/CV/CV_56.xlsx
+++ b/project/CV/CV_56.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1717 +498,1405 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ada</t>
+          <t>baker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4862504</v>
+        <v>50640</v>
       </c>
       <c r="D2" t="n">
-        <v>47304</v>
+        <v>607</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>16001</v>
+        <v>41001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118</v>
+        <v>0.051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.078</v>
+        <v>0.189</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.179</v>
       </c>
       <c r="J2" t="n">
-        <v>0.194</v>
+        <v>0.189</v>
       </c>
       <c r="K2" t="n">
-        <v>0.526</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adams</t>
+          <t>benton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24179</v>
+        <v>162596</v>
       </c>
       <c r="D3" t="n">
-        <v>370</v>
+        <v>2176</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>16003</v>
+        <v>41003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.094</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.218</v>
+        <v>0.059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.218</v>
+        <v>0.156</v>
       </c>
       <c r="K3" t="n">
-        <v>0.254</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bannock</t>
+          <t>clackamas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>702516</v>
+        <v>1179524</v>
       </c>
       <c r="D4" t="n">
-        <v>6110</v>
+        <v>18676</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>16005</v>
+        <v>41005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.193</v>
+        <v>0.024</v>
       </c>
       <c r="I4" t="n">
-        <v>0.176</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.195</v>
+        <v>0.168</v>
       </c>
       <c r="K4" t="n">
-        <v>0.352</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bear lake</t>
+          <t>clatsop</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29054</v>
+        <v>71565</v>
       </c>
       <c r="D5" t="n">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>16007</v>
+        <v>41007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.151</v>
+        <v>0.052</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.027</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102</v>
+        <v>0.051</v>
       </c>
       <c r="J5" t="n">
-        <v>0.243</v>
+        <v>0.073</v>
       </c>
       <c r="K5" t="n">
-        <v>0.385</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>benewah</t>
+          <t>columbia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52908</v>
+        <v>95844</v>
       </c>
       <c r="D6" t="n">
-        <v>649</v>
+        <v>1195</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>16009</v>
+        <v>41009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.038</v>
+        <v>0.048</v>
       </c>
       <c r="H6" t="n">
-        <v>0.059</v>
+        <v>0.015</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15</v>
+        <v>0.158</v>
       </c>
       <c r="J6" t="n">
-        <v>0.152</v>
+        <v>0.174</v>
       </c>
       <c r="K6" t="n">
-        <v>0.601</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bingham</t>
+          <t>coos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>421315</v>
+        <v>89681</v>
       </c>
       <c r="D7" t="n">
-        <v>5217</v>
+        <v>830</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>16011</v>
+        <v>41011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.095</v>
+        <v>0.128</v>
       </c>
       <c r="H7" t="n">
-        <v>0.197</v>
+        <v>0.061</v>
       </c>
       <c r="I7" t="n">
-        <v>0.175</v>
+        <v>0.136</v>
       </c>
       <c r="J7" t="n">
-        <v>0.229</v>
+        <v>0.099</v>
       </c>
       <c r="K7" t="n">
-        <v>0.304</v>
+        <v>0.5770000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>blaine</t>
+          <t>crook</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>281621</v>
+        <v>49842</v>
       </c>
       <c r="D8" t="n">
-        <v>2285</v>
+        <v>990</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>16013</v>
+        <v>41013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.155</v>
+        <v>0.019</v>
       </c>
       <c r="H8" t="n">
-        <v>0.107</v>
+        <v>0.075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.102</v>
+        <v>0.027</v>
       </c>
       <c r="J8" t="n">
-        <v>0.13</v>
+        <v>0.246</v>
       </c>
       <c r="K8" t="n">
-        <v>0.506</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>boise</t>
+          <t>curry</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28352</v>
+        <v>27032</v>
       </c>
       <c r="D9" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>16015</v>
+        <v>41015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.057</v>
+        <v>0.025</v>
       </c>
       <c r="H9" t="n">
-        <v>0.038</v>
+        <v>0.058</v>
       </c>
       <c r="I9" t="n">
-        <v>0.038</v>
+        <v>0.1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5489999999999999</v>
+        <v>0.162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.318</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bonner</t>
+          <t>deschutes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207018</v>
+        <v>463816</v>
       </c>
       <c r="D10" t="n">
-        <v>1509</v>
+        <v>3687</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>16017</v>
+        <v>41017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.116</v>
+        <v>0.061</v>
       </c>
       <c r="I10" t="n">
-        <v>0.119</v>
+        <v>0.014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.241</v>
+        <v>0.25</v>
       </c>
       <c r="K10" t="n">
-        <v>0.436</v>
+        <v>0.6659999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bonneville</t>
+          <t>douglas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1198430</v>
+        <v>157155</v>
       </c>
       <c r="D11" t="n">
-        <v>11387</v>
+        <v>3575</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>16019</v>
+        <v>41019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.096</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.202</v>
+        <v>0.052</v>
       </c>
       <c r="I11" t="n">
-        <v>0.188</v>
+        <v>0.116</v>
       </c>
       <c r="J11" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
       <c r="K11" t="n">
-        <v>0.268</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>boundary</t>
+          <t>gilliam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58868</v>
+        <v>4267</v>
       </c>
       <c r="D12" t="n">
-        <v>690</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>16021</v>
+        <v>41021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="H12" t="n">
-        <v>0.171</v>
+        <v>0.003</v>
       </c>
       <c r="I12" t="n">
-        <v>0.061</v>
+        <v>0.049</v>
       </c>
       <c r="J12" t="n">
-        <v>0.185</v>
+        <v>0.332</v>
       </c>
       <c r="K12" t="n">
-        <v>0.537</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>butte</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19005</v>
+        <v>16787</v>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>16023</v>
+        <v>41023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.107</v>
+        <v>0.014</v>
       </c>
       <c r="H13" t="n">
-        <v>0.213</v>
+        <v>0.062</v>
       </c>
       <c r="I13" t="n">
-        <v>0.159</v>
+        <v>0.132</v>
       </c>
       <c r="J13" t="n">
-        <v>0.222</v>
+        <v>0.12</v>
       </c>
       <c r="K13" t="n">
-        <v>0.298</v>
+        <v>0.6709999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>camas</t>
+          <t>harney</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7716</v>
+        <v>14971</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>16025</v>
+        <v>41025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03</v>
+        <v>0.099</v>
       </c>
       <c r="I14" t="n">
-        <v>0.047</v>
+        <v>0.114</v>
       </c>
       <c r="J14" t="n">
-        <v>0.098</v>
+        <v>0.157</v>
       </c>
       <c r="K14" t="n">
-        <v>0.639</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>canyon</t>
+          <t>hood river</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2762988</v>
+        <v>98981</v>
       </c>
       <c r="D15" t="n">
-        <v>29054</v>
+        <v>1212</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>16027</v>
+        <v>41027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.113</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.095</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.17</v>
+        <v>0.127</v>
       </c>
       <c r="J15" t="n">
-        <v>0.24</v>
+        <v>0.162</v>
       </c>
       <c r="K15" t="n">
-        <v>0.381</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>caribou</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62733</v>
+        <v>649403</v>
       </c>
       <c r="D16" t="n">
-        <v>1082</v>
+        <v>6368</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>16029</v>
+        <v>41029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>0.044</v>
       </c>
       <c r="H16" t="n">
-        <v>0.181</v>
+        <v>0.077</v>
       </c>
       <c r="I16" t="n">
-        <v>0.191</v>
+        <v>0.075</v>
       </c>
       <c r="J16" t="n">
-        <v>0.202</v>
+        <v>0.138</v>
       </c>
       <c r="K16" t="n">
-        <v>0.326</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cassia</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>332066</v>
+        <v>185154</v>
       </c>
       <c r="D17" t="n">
-        <v>2537</v>
+        <v>2414</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>16031</v>
+        <v>41031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.134</v>
+        <v>0.018</v>
       </c>
       <c r="H17" t="n">
-        <v>0.223</v>
+        <v>0.062</v>
       </c>
       <c r="I17" t="n">
-        <v>0.102</v>
+        <v>0.012</v>
       </c>
       <c r="J17" t="n">
-        <v>0.149</v>
+        <v>0.25</v>
       </c>
       <c r="K17" t="n">
-        <v>0.392</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>josephine</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7703</v>
+        <v>135941</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2259</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>16033</v>
+        <v>41033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.119</v>
+        <v>0.028</v>
       </c>
       <c r="H18" t="n">
-        <v>0.228</v>
+        <v>0.056</v>
       </c>
       <c r="I18" t="n">
-        <v>0.196</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.239</v>
+        <v>0.192</v>
       </c>
       <c r="K18" t="n">
-        <v>0.218</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>clearwater</t>
+          <t>klamath</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>77048</v>
+        <v>202410</v>
       </c>
       <c r="D19" t="n">
-        <v>545</v>
+        <v>2425</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>16035</v>
+        <v>41035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.097</v>
       </c>
       <c r="H19" t="n">
-        <v>0.112</v>
+        <v>0.031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.127</v>
+        <v>0.062</v>
       </c>
       <c r="J19" t="n">
-        <v>0.25</v>
+        <v>0.227</v>
       </c>
       <c r="K19" t="n">
-        <v>0.475</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>custer</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23864</v>
+        <v>22472</v>
       </c>
       <c r="D20" t="n">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>16037</v>
+        <v>41037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="I20" t="n">
-        <v>0.199</v>
+        <v>0.127</v>
       </c>
       <c r="J20" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.5579999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>elmore</t>
+          <t>lane</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>159605</v>
+        <v>771666</v>
       </c>
       <c r="D21" t="n">
-        <v>1340</v>
+        <v>9404</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>16039</v>
+        <v>41039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.206</v>
+        <v>0.031</v>
       </c>
       <c r="H21" t="n">
-        <v>0.044</v>
+        <v>0.036</v>
       </c>
       <c r="I21" t="n">
-        <v>0.038</v>
+        <v>0.077</v>
       </c>
       <c r="J21" t="n">
-        <v>0.173</v>
+        <v>0.137</v>
       </c>
       <c r="K21" t="n">
-        <v>0.539</v>
+        <v>0.7190000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100289</v>
+        <v>145041</v>
       </c>
       <c r="D22" t="n">
-        <v>878</v>
+        <v>2969</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>16041</v>
+        <v>41041</v>
       </c>
       <c r="G22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.131</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.256</v>
-      </c>
       <c r="K22" t="n">
-        <v>0.41</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fremont</t>
+          <t>linn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>103592</v>
+        <v>296553</v>
       </c>
       <c r="D23" t="n">
-        <v>1386</v>
+        <v>5516</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>16043</v>
+        <v>41043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.111</v>
+        <v>0.057</v>
       </c>
       <c r="H23" t="n">
-        <v>0.206</v>
+        <v>0.025</v>
       </c>
       <c r="I23" t="n">
-        <v>0.202</v>
+        <v>0.096</v>
       </c>
       <c r="J23" t="n">
-        <v>0.247</v>
+        <v>0.159</v>
       </c>
       <c r="K23" t="n">
-        <v>0.233</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gem</t>
+          <t>malheur</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>156393</v>
+        <v>427134</v>
       </c>
       <c r="D24" t="n">
-        <v>1917</v>
+        <v>7306</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>16045</v>
+        <v>41045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.119</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.136</v>
+        <v>0.206</v>
       </c>
       <c r="I24" t="n">
-        <v>0.111</v>
+        <v>0.213</v>
       </c>
       <c r="J24" t="n">
-        <v>0.198</v>
+        <v>0.206</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gooding</t>
+          <t>marion</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>143312</v>
+        <v>1829718</v>
       </c>
       <c r="D25" t="n">
-        <v>1638</v>
+        <v>31868</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>16047</v>
+        <v>41047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.211</v>
+        <v>0.029</v>
       </c>
       <c r="H25" t="n">
-        <v>0.202</v>
+        <v>0.013</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="J25" t="n">
-        <v>0.153</v>
+        <v>0.196</v>
       </c>
       <c r="K25" t="n">
-        <v>0.345</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>morrow</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>109042</v>
+        <v>131051</v>
       </c>
       <c r="D26" t="n">
-        <v>1251</v>
+        <v>1343</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>16049</v>
+        <v>41049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.045</v>
+        <v>0.026</v>
       </c>
       <c r="H26" t="n">
-        <v>0.094</v>
+        <v>0.004</v>
       </c>
       <c r="I26" t="n">
-        <v>0.164</v>
+        <v>0.083</v>
       </c>
       <c r="J26" t="n">
-        <v>0.275</v>
+        <v>0.197</v>
       </c>
       <c r="K26" t="n">
-        <v>0.423</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>multnomah</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>242148</v>
+        <v>3124133</v>
       </c>
       <c r="D27" t="n">
-        <v>1535</v>
+        <v>54675</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>16051</v>
+        <v>41051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.099</v>
+        <v>0.013</v>
       </c>
       <c r="H27" t="n">
-        <v>0.208</v>
+        <v>0.016</v>
       </c>
       <c r="I27" t="n">
-        <v>0.192</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>0.249</v>
+        <v>0.178</v>
       </c>
       <c r="K27" t="n">
-        <v>0.252</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jerome</t>
+          <t>polk</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>302624</v>
+        <v>244559</v>
       </c>
       <c r="D28" t="n">
-        <v>2503</v>
+        <v>5144</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>16053</v>
+        <v>41053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.175</v>
+        <v>0.013</v>
       </c>
       <c r="H28" t="n">
-        <v>0.219</v>
+        <v>0.022</v>
       </c>
       <c r="I28" t="n">
-        <v>0.096</v>
+        <v>0.078</v>
       </c>
       <c r="J28" t="n">
-        <v>0.167</v>
+        <v>0.242</v>
       </c>
       <c r="K28" t="n">
-        <v>0.343</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kootenai</t>
+          <t>sherman</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1419238</v>
+        <v>5391</v>
       </c>
       <c r="D29" t="n">
-        <v>14540</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>16055</v>
+        <v>41055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.146</v>
+        <v>0.008</v>
       </c>
       <c r="H29" t="n">
-        <v>0.105</v>
+        <v>0.014</v>
       </c>
       <c r="I29" t="n">
-        <v>0.17</v>
+        <v>0.046</v>
       </c>
       <c r="J29" t="n">
-        <v>0.22</v>
+        <v>0.271</v>
       </c>
       <c r="K29" t="n">
-        <v>0.359</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>latah</t>
+          <t>tillamook</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>246859</v>
+        <v>31194</v>
       </c>
       <c r="D30" t="n">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>16057</v>
+        <v>41057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002</v>
+        <v>0.125</v>
       </c>
       <c r="H30" t="n">
-        <v>0.012</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>0.066</v>
+        <v>0.092</v>
       </c>
       <c r="J30" t="n">
-        <v>0.328</v>
+        <v>0.163</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5920000000000001</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lemhi</t>
+          <t>umatilla</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>55209</v>
+        <v>874079</v>
       </c>
       <c r="D31" t="n">
-        <v>810</v>
+        <v>10026</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>16059</v>
+        <v>41059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.109</v>
+        <v>0.043</v>
       </c>
       <c r="H31" t="n">
-        <v>0.173</v>
+        <v>0.01</v>
       </c>
       <c r="I31" t="n">
-        <v>0.231</v>
+        <v>0.081</v>
       </c>
       <c r="J31" t="n">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
       <c r="K31" t="n">
-        <v>0.362</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lewis</t>
+          <t>union</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>31578</v>
+        <v>151195</v>
       </c>
       <c r="D32" t="n">
-        <v>551</v>
+        <v>1381</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>16061</v>
+        <v>41061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="H32" t="n">
-        <v>0.073</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.157</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.285</v>
+        <v>0.189</v>
       </c>
       <c r="K32" t="n">
-        <v>0.459</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>wallowa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54237</v>
+        <v>11917</v>
       </c>
       <c r="D33" t="n">
-        <v>888</v>
+        <v>417</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>16063</v>
+        <v>41063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.18</v>
+        <v>0.041</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.083</v>
       </c>
       <c r="I33" t="n">
-        <v>0.105</v>
+        <v>0.146</v>
       </c>
       <c r="J33" t="n">
-        <v>0.135</v>
+        <v>0.229</v>
       </c>
       <c r="K33" t="n">
-        <v>0.379</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>madison</t>
+          <t>wasco</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>583842</v>
+        <v>111489</v>
       </c>
       <c r="D34" t="n">
-        <v>1529</v>
+        <v>2839</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>16065</v>
+        <v>41065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.101</v>
+        <v>0.019</v>
       </c>
       <c r="H34" t="n">
-        <v>0.207</v>
+        <v>0.034</v>
       </c>
       <c r="I34" t="n">
-        <v>0.196</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0.197</v>
       </c>
       <c r="K34" t="n">
-        <v>0.245</v>
+        <v>0.6809999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>minidoka</t>
+          <t>washington</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>277225</v>
+        <v>1991658</v>
       </c>
       <c r="D35" t="n">
-        <v>2623</v>
+        <v>20794</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>16067</v>
+        <v>41067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.134</v>
+        <v>0.006</v>
       </c>
       <c r="H35" t="n">
-        <v>0.219</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.106</v>
+        <v>0.059</v>
       </c>
       <c r="J35" t="n">
-        <v>0.152</v>
+        <v>0.169</v>
       </c>
       <c r="K35" t="n">
-        <v>0.39</v>
+        <v>0.7559999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nez perce</t>
+          <t>wheeler</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>321013</v>
+        <v>1278</v>
       </c>
       <c r="D36" t="n">
-        <v>8089</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>16069</v>
+        <v>41069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.023</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.117</v>
+        <v>0.049</v>
       </c>
       <c r="J36" t="n">
-        <v>0.326</v>
+        <v>0.232</v>
       </c>
       <c r="K36" t="n">
-        <v>0.517</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oneida</t>
+          <t>yamhill</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>oregon</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24945</v>
+        <v>327072</v>
       </c>
       <c r="D37" t="n">
-        <v>156</v>
+        <v>5514</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>16071</v>
+        <v>41071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.083</v>
+        <v>0.021</v>
       </c>
       <c r="H37" t="n">
-        <v>0.173</v>
+        <v>0.035</v>
       </c>
       <c r="I37" t="n">
-        <v>0.153</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.185</v>
+        <v>0.143</v>
       </c>
       <c r="K37" t="n">
-        <v>0.406</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>owyhee</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>115998</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2035</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16073</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>payette</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>276102</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2901</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F39" t="n">
-        <v>16075</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>75188</v>
-      </c>
-      <c r="D40" t="n">
-        <v>525</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16077</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.381</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>shoshone</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>92388</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3929</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16079</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.342</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>teton</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>89990</v>
-      </c>
-      <c r="D42" t="n">
-        <v>319</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16081</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.272</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>twin falls</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1035127</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16243</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16083</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.335</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>valley</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>54967</v>
-      </c>
-      <c r="D44" t="n">
-        <v>375</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16085</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.361</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>washington</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>130856</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16087</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.239</v>
+        <v>0.7290000000000001</v>
       </c>
     </row>
   </sheetData>
